--- a/files/Criminal Justice Proffesional program.xlsx
+++ b/files/Criminal Justice Proffesional program.xlsx
@@ -155,7 +155,7 @@
     <t xml:space="preserve">Students will be able to apply conventions of Standard English and APA format in order to communicate clearly to an audience</t>
   </si>
   <si>
-    <t xml:space="preserve">CJ 401</t>
+    <t xml:space="preserve">CJ 410</t>
   </si>
   <si>
     <t xml:space="preserve">Describe the impact of social issues on criminal justice practitioners </t>
@@ -395,8 +395,8 @@
   </sheetPr>
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -717,7 +717,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
@@ -757,7 +757,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
